--- a/artfynd/A 17919-2024 artfynd.xlsx
+++ b/artfynd/A 17919-2024 artfynd.xlsx
@@ -12445,7 +12445,7 @@
         <v>125657630</v>
       </c>
       <c r="B113" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>125657633</v>
       </c>
       <c r="B116" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>125657631</v>
       </c>
       <c r="B117" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
